--- a/am-wiki-assets/fuzzymatch/final_report.xlsx
+++ b/am-wiki-assets/fuzzymatch/final_report.xlsx
@@ -913,9 +913,6 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>SÃ£o TomÃ© and PrÃ­ncipe</t>
-  </si>
-  <si>
     <t>Sao Tome</t>
   </si>
   <si>
@@ -1094,6 +1091,9 @@
   </si>
   <si>
     <t>Harare</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
   </si>
 </sst>
 </file>
@@ -1653,23 +1653,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1780,25 +1763,42 @@
       </font>
       <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K170" totalsRowShown="0" dataDxfId="0" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K170" totalsRowShown="0" dataDxfId="7" dataCellStyle="Comma">
   <tableColumns count="11">
     <tableColumn id="1" name="GN"/>
     <tableColumn id="2" name="WB"/>
     <tableColumn id="3" name="WD"/>
     <tableColumn id="4" name="Capital (GN)"/>
-    <tableColumn id="5" name="Area(in sq km) (GN)" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="6" name="Population (GN)" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="7" name="Sum Popul Top 8 Cities (GN-CR8)" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="8" name="CR8_" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="9" name="Gini (WD)" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="10" name="HDI (WD)" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="11" name="GDP (2021 current USD) (WB)" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="5" name="Area(in sq km) (GN)" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" name="Population (GN)" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" name="Sum Popul Top 8 Cities (GN-CR8)" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" name="CR8_" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="9" name="Gini (WD)" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="10" name="HDI (WD)" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="11" name="GDP (2021 current USD) (WB)" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6969,10 +6969,10 @@
         <v>297</v>
       </c>
       <c r="C143" t="s">
+        <v>358</v>
+      </c>
+      <c r="D143" t="s">
         <v>298</v>
-      </c>
-      <c r="D143" t="s">
-        <v>299</v>
       </c>
       <c r="E143" s="3">
         <v>1001</v>
@@ -6992,16 +6992,16 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
+        <v>299</v>
+      </c>
+      <c r="B144" t="s">
+        <v>299</v>
+      </c>
+      <c r="C144" t="s">
+        <v>299</v>
+      </c>
+      <c r="D144" t="s">
         <v>300</v>
-      </c>
-      <c r="B144" t="s">
-        <v>300</v>
-      </c>
-      <c r="C144" t="s">
-        <v>300</v>
-      </c>
-      <c r="D144" t="s">
-        <v>301</v>
       </c>
       <c r="E144" s="3">
         <v>163270</v>
@@ -7027,16 +7027,16 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
+        <v>301</v>
+      </c>
+      <c r="B145" t="s">
         <v>302</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
+        <v>301</v>
+      </c>
+      <c r="D145" t="s">
         <v>303</v>
-      </c>
-      <c r="C145" t="s">
-        <v>302</v>
-      </c>
-      <c r="D145" t="s">
-        <v>304</v>
       </c>
       <c r="E145" s="3">
         <v>48845</v>
@@ -7062,16 +7062,16 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
+        <v>304</v>
+      </c>
+      <c r="B146" t="s">
+        <v>304</v>
+      </c>
+      <c r="C146" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" t="s">
         <v>305</v>
-      </c>
-      <c r="B146" t="s">
-        <v>305</v>
-      </c>
-      <c r="C146" t="s">
-        <v>305</v>
-      </c>
-      <c r="D146" t="s">
-        <v>306</v>
       </c>
       <c r="E146" s="3">
         <v>20273</v>
@@ -7097,16 +7097,16 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147" t="s">
         <v>307</v>
-      </c>
-      <c r="B147" t="s">
-        <v>307</v>
-      </c>
-      <c r="C147" t="s">
-        <v>307</v>
-      </c>
-      <c r="D147" t="s">
-        <v>308</v>
       </c>
       <c r="E147" s="3">
         <v>449964</v>
@@ -7132,16 +7132,16 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" t="s">
+        <v>308</v>
+      </c>
+      <c r="D148" t="s">
         <v>309</v>
-      </c>
-      <c r="B148" t="s">
-        <v>309</v>
-      </c>
-      <c r="C148" t="s">
-        <v>309</v>
-      </c>
-      <c r="D148" t="s">
-        <v>310</v>
       </c>
       <c r="E148" s="3">
         <v>455</v>
@@ -7167,16 +7167,16 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
+        <v>310</v>
+      </c>
+      <c r="B149" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" t="s">
+        <v>310</v>
+      </c>
+      <c r="D149" t="s">
         <v>311</v>
-      </c>
-      <c r="B149" t="s">
-        <v>311</v>
-      </c>
-      <c r="C149" t="s">
-        <v>311</v>
-      </c>
-      <c r="D149" t="s">
-        <v>312</v>
       </c>
       <c r="E149" s="3">
         <v>1284000</v>
@@ -7202,16 +7202,16 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
+        <v>312</v>
+      </c>
+      <c r="B150" t="s">
+        <v>312</v>
+      </c>
+      <c r="C150" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" t="s">
         <v>313</v>
-      </c>
-      <c r="B150" t="s">
-        <v>313</v>
-      </c>
-      <c r="C150" t="s">
-        <v>313</v>
-      </c>
-      <c r="D150" t="s">
-        <v>314</v>
       </c>
       <c r="E150" s="3">
         <v>56785</v>
@@ -7237,16 +7237,16 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
+        <v>314</v>
+      </c>
+      <c r="B151" t="s">
+        <v>314</v>
+      </c>
+      <c r="C151" t="s">
+        <v>314</v>
+      </c>
+      <c r="D151" t="s">
         <v>315</v>
-      </c>
-      <c r="B151" t="s">
-        <v>315</v>
-      </c>
-      <c r="C151" t="s">
-        <v>315</v>
-      </c>
-      <c r="D151" t="s">
-        <v>316</v>
       </c>
       <c r="E151" s="3">
         <v>514000</v>
@@ -7272,16 +7272,16 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
+        <v>316</v>
+      </c>
+      <c r="B152" t="s">
+        <v>316</v>
+      </c>
+      <c r="C152" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" t="s">
         <v>317</v>
-      </c>
-      <c r="B152" t="s">
-        <v>317</v>
-      </c>
-      <c r="C152" t="s">
-        <v>317</v>
-      </c>
-      <c r="D152" t="s">
-        <v>318</v>
       </c>
       <c r="E152" s="3">
         <v>143100</v>
@@ -7307,16 +7307,16 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
+        <v>318</v>
+      </c>
+      <c r="B153" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" t="s">
+        <v>318</v>
+      </c>
+      <c r="D153" t="s">
         <v>319</v>
-      </c>
-      <c r="B153" t="s">
-        <v>319</v>
-      </c>
-      <c r="C153" t="s">
-        <v>319</v>
-      </c>
-      <c r="D153" t="s">
-        <v>320</v>
       </c>
       <c r="E153" s="3">
         <v>488100</v>
@@ -7339,16 +7339,16 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
+        <v>320</v>
+      </c>
+      <c r="B154" t="s">
+        <v>320</v>
+      </c>
+      <c r="C154" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" t="s">
         <v>321</v>
-      </c>
-      <c r="B154" t="s">
-        <v>321</v>
-      </c>
-      <c r="C154" t="s">
-        <v>321</v>
-      </c>
-      <c r="D154" t="s">
-        <v>322</v>
       </c>
       <c r="E154" s="3">
         <v>748</v>
@@ -7374,16 +7374,16 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" t="s">
+        <v>322</v>
+      </c>
+      <c r="C155" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155" t="s">
         <v>323</v>
-      </c>
-      <c r="B155" t="s">
-        <v>323</v>
-      </c>
-      <c r="C155" t="s">
-        <v>323</v>
-      </c>
-      <c r="D155" t="s">
-        <v>324</v>
       </c>
       <c r="E155" s="3">
         <v>5128</v>
@@ -7409,16 +7409,16 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
+        <v>324</v>
+      </c>
+      <c r="B156" t="s">
+        <v>324</v>
+      </c>
+      <c r="C156" t="s">
+        <v>324</v>
+      </c>
+      <c r="D156" t="s">
         <v>325</v>
-      </c>
-      <c r="B156" t="s">
-        <v>325</v>
-      </c>
-      <c r="C156" t="s">
-        <v>325</v>
-      </c>
-      <c r="D156" t="s">
-        <v>326</v>
       </c>
       <c r="E156" s="3">
         <v>163610</v>
@@ -7444,16 +7444,16 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" t="s">
         <v>327</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>326</v>
+      </c>
+      <c r="D157" t="s">
         <v>328</v>
-      </c>
-      <c r="C157" t="s">
-        <v>327</v>
-      </c>
-      <c r="D157" t="s">
-        <v>329</v>
       </c>
       <c r="E157" s="3">
         <v>780580</v>
@@ -7479,16 +7479,16 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
+        <v>329</v>
+      </c>
+      <c r="B158" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158" t="s">
+        <v>329</v>
+      </c>
+      <c r="D158" t="s">
         <v>330</v>
-      </c>
-      <c r="B158" t="s">
-        <v>330</v>
-      </c>
-      <c r="C158" t="s">
-        <v>330</v>
-      </c>
-      <c r="D158" t="s">
-        <v>331</v>
       </c>
       <c r="E158" s="3">
         <v>26</v>
@@ -7514,16 +7514,16 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
+        <v>331</v>
+      </c>
+      <c r="B159" t="s">
+        <v>331</v>
+      </c>
+      <c r="C159" t="s">
+        <v>331</v>
+      </c>
+      <c r="D159" t="s">
         <v>332</v>
-      </c>
-      <c r="B159" t="s">
-        <v>332</v>
-      </c>
-      <c r="C159" t="s">
-        <v>332</v>
-      </c>
-      <c r="D159" t="s">
-        <v>333</v>
       </c>
       <c r="E159" s="3">
         <v>236040</v>
@@ -7549,16 +7549,16 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
+        <v>333</v>
+      </c>
+      <c r="B160" t="s">
+        <v>333</v>
+      </c>
+      <c r="C160" t="s">
+        <v>333</v>
+      </c>
+      <c r="D160" t="s">
         <v>334</v>
-      </c>
-      <c r="B160" t="s">
-        <v>334</v>
-      </c>
-      <c r="C160" t="s">
-        <v>334</v>
-      </c>
-      <c r="D160" t="s">
-        <v>335</v>
       </c>
       <c r="E160" s="3">
         <v>603700</v>
@@ -7584,16 +7584,16 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
+        <v>335</v>
+      </c>
+      <c r="B161" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" t="s">
+        <v>335</v>
+      </c>
+      <c r="D161" t="s">
         <v>336</v>
-      </c>
-      <c r="B161" t="s">
-        <v>336</v>
-      </c>
-      <c r="C161" t="s">
-        <v>336</v>
-      </c>
-      <c r="D161" t="s">
-        <v>337</v>
       </c>
       <c r="E161" s="3">
         <v>176220</v>
@@ -7619,16 +7619,16 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162" t="s">
         <v>338</v>
       </c>
-      <c r="B162" t="s">
-        <v>338</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>339</v>
-      </c>
-      <c r="D162" t="s">
-        <v>340</v>
       </c>
       <c r="E162" s="3">
         <v>9629091</v>
@@ -7654,16 +7654,16 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
+        <v>340</v>
+      </c>
+      <c r="B163" t="s">
+        <v>340</v>
+      </c>
+      <c r="C163" t="s">
+        <v>340</v>
+      </c>
+      <c r="D163" t="s">
         <v>341</v>
-      </c>
-      <c r="B163" t="s">
-        <v>341</v>
-      </c>
-      <c r="C163" t="s">
-        <v>341</v>
-      </c>
-      <c r="D163" t="s">
-        <v>342</v>
       </c>
       <c r="E163" s="3">
         <v>447400</v>
@@ -7689,16 +7689,16 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" t="s">
         <v>343</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>342</v>
+      </c>
+      <c r="D164" t="s">
         <v>344</v>
-      </c>
-      <c r="C164" t="s">
-        <v>343</v>
-      </c>
-      <c r="D164" t="s">
-        <v>345</v>
       </c>
       <c r="E164" s="3">
         <v>389</v>
@@ -7721,16 +7721,16 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
+        <v>345</v>
+      </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" t="s">
+        <v>345</v>
+      </c>
+      <c r="D165" t="s">
         <v>346</v>
-      </c>
-      <c r="B165" t="s">
-        <v>346</v>
-      </c>
-      <c r="C165" t="s">
-        <v>346</v>
-      </c>
-      <c r="D165" t="s">
-        <v>347</v>
       </c>
       <c r="E165" s="3">
         <v>12200</v>
@@ -7756,16 +7756,16 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
+        <v>347</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
+      </c>
+      <c r="C166" t="s">
+        <v>347</v>
+      </c>
+      <c r="D166" t="s">
         <v>348</v>
-      </c>
-      <c r="B166" t="s">
-        <v>348</v>
-      </c>
-      <c r="C166" t="s">
-        <v>348</v>
-      </c>
-      <c r="D166" t="s">
-        <v>349</v>
       </c>
       <c r="E166" s="3">
         <v>2944</v>
@@ -7791,16 +7791,16 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
+        <v>349</v>
+      </c>
+      <c r="B167" t="s">
         <v>350</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>349</v>
+      </c>
+      <c r="D167" t="s">
         <v>351</v>
-      </c>
-      <c r="C167" t="s">
-        <v>350</v>
-      </c>
-      <c r="D167" t="s">
-        <v>352</v>
       </c>
       <c r="E167" s="3">
         <v>527970</v>
@@ -7823,16 +7823,16 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
+        <v>352</v>
+      </c>
+      <c r="B168" t="s">
+        <v>352</v>
+      </c>
+      <c r="C168" t="s">
+        <v>352</v>
+      </c>
+      <c r="D168" t="s">
         <v>353</v>
-      </c>
-      <c r="B168" t="s">
-        <v>353</v>
-      </c>
-      <c r="C168" t="s">
-        <v>353</v>
-      </c>
-      <c r="D168" t="s">
-        <v>354</v>
       </c>
       <c r="E168" s="3">
         <v>1219912</v>
@@ -7858,16 +7858,16 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
+        <v>354</v>
+      </c>
+      <c r="B169" t="s">
+        <v>354</v>
+      </c>
+      <c r="C169" t="s">
+        <v>354</v>
+      </c>
+      <c r="D169" t="s">
         <v>355</v>
-      </c>
-      <c r="B169" t="s">
-        <v>355</v>
-      </c>
-      <c r="C169" t="s">
-        <v>355</v>
-      </c>
-      <c r="D169" t="s">
-        <v>356</v>
       </c>
       <c r="E169" s="3">
         <v>752614</v>
@@ -7893,16 +7893,16 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
+        <v>356</v>
+      </c>
+      <c r="B170" t="s">
+        <v>356</v>
+      </c>
+      <c r="C170" t="s">
+        <v>356</v>
+      </c>
+      <c r="D170" t="s">
         <v>357</v>
-      </c>
-      <c r="B170" t="s">
-        <v>357</v>
-      </c>
-      <c r="C170" t="s">
-        <v>357</v>
-      </c>
-      <c r="D170" t="s">
-        <v>358</v>
       </c>
       <c r="E170" s="3">
         <v>390580</v>
